--- a/pythonExcel/sales_report_pandas.xlsx
+++ b/pythonExcel/sales_report_pandas.xlsx
@@ -1,40 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Washington DC</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +78,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,333 +397,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Boston</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Chicago</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Las Vegas</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Washington DC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
         <v>43496</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>21784.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>51187.7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>23012.75</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>49872.85</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>58629.85</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>14057.6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
         <v>43524</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>21454.9</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>52330.85</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>25493.1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>46669.85</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>55218.65</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>15235.4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
         <v>43555</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>20043</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>48897.25</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>23451.1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>41572.25</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>52712.95</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>14177.05</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
         <v>43585</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>18791.05</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>47396.35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>22710.15</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>41714.3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>49324.65</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>13339.15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
         <v>43616</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>18036.75</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>45117.05</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>21526.55</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>40610.4</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>47759.6</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>13147.1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
         <v>43646</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>21556.25</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>49460.45</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>21985.05</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>47265.65</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>53462.4</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>14284.3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
         <v>43677</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>19853</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>47993.8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>23444.3</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>40408.3</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>50181.6</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>14161.5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
         <v>43708</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>22332.9</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>50838.9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>24927.65</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>45396.85</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>55336.35</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>16127.05</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
         <v>43738</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>19924.5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>49096.25</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>24410.7</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>42830.6</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>49931.45</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>14994.4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
         <v>43769</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>16550.95</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>42543.8</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>22827.5</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>34090.05</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>44311.65</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>12846.7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
         <v>43799</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>21312.9</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>52011.6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>24860.25</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>46959.85</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>55056.45</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>14057.6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
         <v>43830</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>19722.6</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>49355.1</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>24535.75</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>42364.35</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>50933.45</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>14702.15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>